--- a/result/TrailATR/summary_DOW_M15_2017-2020_0.xlsx
+++ b/result/TrailATR/summary_DOW_M15_2017-2020_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,54 +554,54 @@
         <v>2020</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>-713103.2000000001</v>
+        <v>-660034.9</v>
       </c>
       <c r="L2" t="n">
-        <v>-357755.1</v>
+        <v>-331311.7</v>
       </c>
       <c r="M2" t="n">
-        <v>4806</v>
+        <v>7453</v>
       </c>
       <c r="N2" t="n">
-        <v>-355348.1</v>
+        <v>-328723.2</v>
       </c>
       <c r="O2" t="n">
-        <v>-25656.9</v>
+        <v>-25973.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2504</v>
+        <v>2797</v>
       </c>
       <c r="Q2" t="n">
-        <v>-73.93843112775697</v>
+        <v>-44.10615859385482</v>
       </c>
       <c r="R2" t="n">
-        <v>1380.394678009496</v>
+        <v>1069.550690406442</v>
       </c>
       <c r="S2" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1883062838119018</v>
+        <v>0.2299745069099692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,54 +620,54 @@
         <v>2020</v>
       </c>
       <c r="G3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>-785775.0000000001</v>
+        <v>-701402.7000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>-394731.5000000001</v>
+        <v>-354138.1</v>
       </c>
       <c r="M3" t="n">
-        <v>4479</v>
+        <v>4116</v>
       </c>
       <c r="N3" t="n">
-        <v>-391043.5000000001</v>
+        <v>-347264.6</v>
       </c>
       <c r="O3" t="n">
-        <v>-25964.9</v>
+        <v>-25656.9</v>
       </c>
       <c r="P3" t="n">
-        <v>2553.5</v>
+        <v>2600.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>-87.30598347845502</v>
+        <v>-84.36943634596696</v>
       </c>
       <c r="R3" t="n">
-        <v>1481.036483561284</v>
+        <v>1492.105388249803</v>
       </c>
       <c r="S3" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1859790131725832</v>
+        <v>0.1746841593780369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2020</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>-809217.8000000002</v>
+        <v>-703711.7000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-408033.4000000001</v>
+        <v>-355848.1</v>
       </c>
       <c r="M4" t="n">
-        <v>6514</v>
+        <v>4086</v>
       </c>
       <c r="N4" t="n">
-        <v>-401184.4000000001</v>
+        <v>-347863.6</v>
       </c>
       <c r="O4" t="n">
-        <v>-25958.4</v>
+        <v>-25656.9</v>
       </c>
       <c r="P4" t="n">
-        <v>2595</v>
+        <v>3645</v>
       </c>
       <c r="Q4" t="n">
-        <v>-61.58802579060487</v>
+        <v>-85.13548702887911</v>
       </c>
       <c r="R4" t="n">
-        <v>1268.396169704059</v>
+        <v>1496.64712450199</v>
       </c>
       <c r="S4" t="n">
-        <v>-11</v>
+        <v>-15.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2279705250230273</v>
+        <v>0.1659324522760646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2020</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>-823365.8000000002</v>
+        <v>-703712.2000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>-414289.4000000001</v>
+        <v>-355023.6</v>
       </c>
       <c r="M5" t="n">
-        <v>4783</v>
+        <v>4135</v>
       </c>
       <c r="N5" t="n">
-        <v>-409076.4000000001</v>
+        <v>-348688.6</v>
       </c>
       <c r="O5" t="n">
-        <v>-25958.4</v>
+        <v>-25656.9</v>
       </c>
       <c r="P5" t="n">
-        <v>2576</v>
+        <v>2452.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>-85.52715868701654</v>
+        <v>-84.32614268440146</v>
       </c>
       <c r="R5" t="n">
-        <v>1478.516539429339</v>
+        <v>1488.450455280397</v>
       </c>
       <c r="S5" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1743675517457663</v>
+        <v>0.1755743651753325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,54 +818,54 @@
         <v>2020</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
         <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>-856013.1000000002</v>
+        <v>-711966.2000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>-430757.8000000001</v>
+        <v>-358695.6</v>
       </c>
       <c r="M6" t="n">
-        <v>5308</v>
+        <v>3974</v>
       </c>
       <c r="N6" t="n">
-        <v>-425255.3000000001</v>
+        <v>-353270.6</v>
       </c>
       <c r="O6" t="n">
         <v>-25656.9</v>
       </c>
       <c r="P6" t="n">
-        <v>3715</v>
+        <v>4029.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>-80.11591936699324</v>
+        <v>-88.89547055863112</v>
       </c>
       <c r="R6" t="n">
-        <v>1443.439012526456</v>
+        <v>1517.477344326151</v>
       </c>
       <c r="S6" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2157121326299925</v>
+        <v>0.1633115249119275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,54 +884,54 @@
         <v>2020</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>-869605.6000000002</v>
+        <v>-713103.2000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>-436714.3000000001</v>
+        <v>-357755.1</v>
       </c>
       <c r="M7" t="n">
-        <v>5482</v>
+        <v>4806</v>
       </c>
       <c r="N7" t="n">
-        <v>-432891.3000000001</v>
+        <v>-355348.1</v>
       </c>
       <c r="O7" t="n">
-        <v>-25975.9</v>
+        <v>-25656.9</v>
       </c>
       <c r="P7" t="n">
-        <v>2704.5</v>
+        <v>2504</v>
       </c>
       <c r="Q7" t="n">
-        <v>-78.96594308646482</v>
+        <v>-73.93843112775697</v>
       </c>
       <c r="R7" t="n">
-        <v>1423.334949310905</v>
+        <v>1380.394678009496</v>
       </c>
       <c r="S7" t="n">
         <v>-14</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1964611455673112</v>
+        <v>0.1883062838119018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>-874697.6000000002</v>
+        <v>-718494.7000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>-441880.3000000001</v>
+        <v>-362297.1</v>
       </c>
       <c r="M8" t="n">
-        <v>4887</v>
+        <v>4647</v>
       </c>
       <c r="N8" t="n">
-        <v>-432817.3000000001</v>
+        <v>-356197.6</v>
       </c>
       <c r="O8" t="n">
-        <v>-25967.4</v>
+        <v>-25656.9</v>
       </c>
       <c r="P8" t="n">
-        <v>2169.5</v>
+        <v>2127.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>-88.56502967055455</v>
+        <v>-76.65108672261675</v>
       </c>
       <c r="R8" t="n">
-        <v>1512.150600848583</v>
+        <v>1402.151931740672</v>
       </c>
       <c r="S8" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1995089011663597</v>
+        <v>0.1792554336130837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2020</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>-907867.9000000003</v>
+        <v>-737334.2000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>-455910.7000000001</v>
+        <v>-368667.1</v>
       </c>
       <c r="M9" t="n">
-        <v>4933</v>
+        <v>3980</v>
       </c>
       <c r="N9" t="n">
-        <v>-451957.2000000001</v>
+        <v>-368667.1</v>
       </c>
       <c r="O9" t="n">
         <v>-25656.9</v>
       </c>
       <c r="P9" t="n">
-        <v>3809</v>
+        <v>4012</v>
       </c>
       <c r="Q9" t="n">
-        <v>-91.61913642813707</v>
+        <v>-92.62992462311558</v>
       </c>
       <c r="R9" t="n">
-        <v>1539.536769087341</v>
+        <v>1514.724675573237</v>
       </c>
       <c r="S9" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2110277721467667</v>
+        <v>0.1545226130653266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2020</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>-914819.9000000003</v>
+        <v>-749724.5000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>-460647.2000000001</v>
+        <v>-379395.5000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>7534</v>
+        <v>4432</v>
       </c>
       <c r="N10" t="n">
-        <v>-454172.7000000001</v>
+        <v>-370329.0000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>-25967.4</v>
+        <v>-25656.9</v>
       </c>
       <c r="P10" t="n">
-        <v>2717.5</v>
+        <v>3812.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>-60.28307671887445</v>
+        <v>-83.55798736462096</v>
       </c>
       <c r="R10" t="n">
-        <v>1253.202766413846</v>
+        <v>1486.540965907324</v>
       </c>
       <c r="S10" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="T10" t="n">
-        <v>0.234669498274489</v>
+        <v>0.1827617328519855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2020</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>2.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>-915849.4000000003</v>
+        <v>-751078.0000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>-462712.2000000001</v>
+        <v>-379574.5000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>5189</v>
+        <v>5043</v>
       </c>
       <c r="N11" t="n">
-        <v>-453137.2000000001</v>
+        <v>-371503.5000000001</v>
       </c>
       <c r="O11" t="n">
         <v>-25656.9</v>
       </c>
       <c r="P11" t="n">
-        <v>2429</v>
+        <v>3775.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>-87.32649836191948</v>
+        <v>-73.66716240333136</v>
       </c>
       <c r="R11" t="n">
-        <v>1503.000701925238</v>
+        <v>1395.151701604597</v>
       </c>
       <c r="S11" t="n">
-        <v>-13.5</v>
+        <v>-11</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1880901907882058</v>
+        <v>0.2117787031528852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,112 +1214,4006 @@
         <v>2020</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>-970132.2000000003</v>
+        <v>-752965.5000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>-490079.1000000002</v>
+        <v>-380124.5000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>5301</v>
+        <v>4729</v>
       </c>
       <c r="N12" t="n">
-        <v>-480053.1000000002</v>
+        <v>-372841.0000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>-25965.4</v>
+        <v>-25656.9</v>
       </c>
       <c r="P12" t="n">
-        <v>2341</v>
+        <v>3853.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>-90.55897000565933</v>
+        <v>-78.84140410234723</v>
       </c>
       <c r="R12" t="n">
-        <v>1532.581181932167</v>
+        <v>1438.523380877035</v>
       </c>
       <c r="S12" t="n">
-        <v>-15.5</v>
+        <v>-14</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1929824561403509</v>
+        <v>0.1920067667582999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G13" t="n">
+        <v>65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>450</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-754572.5000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-379992.0000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-374580.5000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3880.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-93.62171957010749</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1564.788179025947</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.166208447888028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>200</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-759664.0000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-383613.5000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5055</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-376050.5000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2504</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-74.39179030662712</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1390.721871347386</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1964391691394659</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B15" t="n">
+        <v>69</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" t="n">
+        <v>200</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-766793.5000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-385937.0000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4355</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-380856.5000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2627.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-87.45269804822046</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1502.076118151156</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1807118254879449</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B16" t="n">
+        <v>44</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G16" t="n">
+        <v>75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>55</v>
+      </c>
+      <c r="J16" t="n">
+        <v>200</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-770096.0000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-388829.5000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4809</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-381266.5000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2287</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-79.28186733208568</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1429.548379010211</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1981700977334165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G17" t="n">
+        <v>70</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60</v>
+      </c>
+      <c r="J17" t="n">
+        <v>350</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-772903.0000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-390991.5000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4681</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-381911.5000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-25975.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2114</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-81.58758812219612</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1449.364344974666</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1982482375560778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G18" t="n">
+        <v>95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>150</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-785775.0000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-394731.5000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4479</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-391043.5000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-25964.9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2553.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-87.30598347845502</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1481.036483561284</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1859790131725832</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G19" t="n">
+        <v>95</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>90</v>
+      </c>
+      <c r="J19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-792011.0000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-396005.5000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5015</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-396005.5000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3715</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-78.96420737786642</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1397.130349403866</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2057826520438684</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B20" t="n">
+        <v>58</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>90</v>
+      </c>
+      <c r="J20" t="n">
+        <v>450</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-799503.3000000002</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-403077.4000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4578</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-396425.9000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3853.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-86.59368719965052</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1509.994332597053</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-13.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.1876365224989078</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>55</v>
+      </c>
+      <c r="J21" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-802359.0000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-401179.5000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6487</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-401179.5000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-25961.9</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2408</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-61.84361029751813</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1230.828345803156</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2172036380453214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>80</v>
+      </c>
+      <c r="J22" t="n">
+        <v>300</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-805380.8000000002</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-406333.9000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4854</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-399046.9000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2504</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-82.20990935311086</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1466.251930599614</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1798516687268232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B23" t="n">
+        <v>43</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>250</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-806165.8000000002</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-407018.9000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-399146.9000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3874.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-86.39543290043292</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1503.854107528461</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.1859307359307359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B24" t="n">
+        <v>63</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-806838.3000000002</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-406411.4000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4339</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-400426.9000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3812.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-92.28552661903666</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1549.578118809866</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1829914726895598</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>33</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>80</v>
+      </c>
+      <c r="J25" t="n">
+        <v>350</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-807094.8000000002</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-406110.9000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5520</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-400983.9000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2294</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-72.64201086956523</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1374.43520724362</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2144927536231884</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G26" t="n">
+        <v>85</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>300</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-809217.8000000002</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-408033.4000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6514</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-401184.4000000001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2595</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-61.58802579060487</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1268.396169704059</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2279705250230273</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+      <c r="J27" t="n">
+        <v>200</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-809329.8000000002</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-406309.9000000001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5520</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-403019.9000000001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2294</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-73.01085144927538</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1374.410834254161</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2141304347826087</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G28" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>90</v>
+      </c>
+      <c r="J28" t="n">
+        <v>150</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-813051.3000000002</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-407445.9000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4946</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-405605.4000000001</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3714.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-82.00675293166196</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1451.502643311798</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2143145976546705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B29" t="n">
+        <v>65</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G29" t="n">
+        <v>75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>65</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-816441.3000000002</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-409808.9000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5921</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-406632.4000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2451</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-68.67630467826382</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1329.977578746032</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2266509035635872</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>70</v>
+      </c>
+      <c r="J30" t="n">
+        <v>250</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-823365.8000000002</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-414289.4000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4783</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-409076.4000000001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2576</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-85.52715868701654</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1478.516539429339</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1743675517457663</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>85</v>
+      </c>
+      <c r="J31" t="n">
+        <v>250</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-856013.1000000002</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-430757.8000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5308</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-425255.3000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3715</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-80.11591936699324</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1443.439012526456</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2157121326299925</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B32" t="n">
+        <v>73</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>45</v>
+      </c>
+      <c r="J32" t="n">
+        <v>350</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-869531.6000000002</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-440176.8000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4873</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-429354.8000000001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-25967.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2588</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-88.10892673917506</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1514.384855084328</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2006977221424174</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G33" t="n">
+        <v>95</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>60</v>
+      </c>
+      <c r="J33" t="n">
+        <v>200</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-869605.6000000002</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-436714.3000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5482</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-432891.3000000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-25975.9</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-78.96594308646482</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1423.334949310905</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.1964611455673112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J34" t="n">
+        <v>250</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-871878.1000000002</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-437823.8000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5709</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-434054.3000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2693</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-76.02983009283589</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1394.541725095396</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.1832194780171659</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B35" t="n">
+        <v>62</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>60</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-874349.3000000002</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-437216.4000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5071</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-437132.9000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-25951.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1693.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-86.20250443699469</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1434.041630882575</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1699861960165648</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
         <v>6</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G36" t="n">
+        <v>85</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="n">
+        <v>400</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-874697.6000000002</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-441880.3000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4887</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-432817.3000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-25967.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2169.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-88.56502967055455</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1512.150600848583</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1995089011663597</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B37" t="n">
+        <v>66</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G37" t="n">
+        <v>65</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>150</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-888900.6000000002</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-448295.3000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4979</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-440605.3000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-25967.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1847</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-88.49272946374776</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1497.534343939641</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1982325768226552</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n">
+        <v>26</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>60</v>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-894155.1000000002</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-447085.8000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6410</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-447069.3000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-25975.9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2387</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-69.74560062402497</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1315.596829872593</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2157566302652106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B39" t="n">
+        <v>82</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>65</v>
+      </c>
+      <c r="J39" t="n">
+        <v>500</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-905486.4000000003</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-457369.7000000001</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6174</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-448116.7000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2387</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-72.58126012309688</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1378.262798389924</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>95</v>
+      </c>
+      <c r="J40" t="n">
+        <v>400</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-907867.9000000003</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-455910.7000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4933</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-451957.2000000001</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3809</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-91.61913642813707</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1539.536769087341</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2110277721467667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>70</v>
+      </c>
+      <c r="J41" t="n">
+        <v>250</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-911165.4000000003</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-457956.7000000001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5818</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-453208.7000000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-25961.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2413.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-77.89767961498799</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1419.853555759829</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2239601237538673</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>50</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G42" t="n">
+        <v>60</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>90</v>
+      </c>
+      <c r="J42" t="n">
+        <v>350</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-913449.9000000003</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-457931.2000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-455518.7000000001</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3715</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-90.2911199207136</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1522.869791015941</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2128840436075322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G43" t="n">
+        <v>90</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>40</v>
+      </c>
+      <c r="J43" t="n">
+        <v>300</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-914819.9000000003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-460647.2000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7534</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-454172.7000000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-25967.4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2717.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-60.28307671887445</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1253.202766413846</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.234669498274489</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G44" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DOW</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H44" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>350</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-915849.4000000003</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-462712.2000000001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5189</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-453137.2000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-25656.9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2429</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-87.32649836191948</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1503.000701925238</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.1880901907882058</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G45" t="n">
+        <v>90</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>40</v>
+      </c>
+      <c r="J45" t="n">
+        <v>150</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-923146.4000000003</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-464872.7000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>6332</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-458273.7000000001</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2860</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-72.37424194567279</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1366.014753272245</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2094125078963992</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B46" t="n">
+        <v>76</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60</v>
+      </c>
+      <c r="J46" t="n">
+        <v>150</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-939423.9000000003</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-471384.2000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5209</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-468039.7000000001</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-25958.4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2889.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-89.85212132846998</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1502.274838530446</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.1708581301593396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>61</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G47" t="n">
+        <v>80</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-944637.6000000002</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-472748.8000000001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5019</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-471888.8000000001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1733</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-94.02048216776252</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1489.371023067906</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1946602908946005</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G48" t="n">
+        <v>75</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-950697.7000000003</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-481643.6000000002</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7264</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-469054.1000000002</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1577.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-64.57242566079297</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1309.236414868401</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.3396200440528634</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G49" t="n">
+        <v>80</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>400</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-957812.2000000003</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-484021.6000000002</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5105</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-473790.6000000002</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2434</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-92.80912830558279</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1561.261953947888</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2671890303623898</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G50" t="n">
+        <v>70</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>350</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-958580.7000000003</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-485851.6000000002</v>
+      </c>
+      <c r="M50" t="n">
+        <v>7230</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-472729.1000000002</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2228</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-65.38438450899034</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1312.416299550567</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2576763485477178</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G51" t="n">
+        <v>45</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>70</v>
+      </c>
+      <c r="J51" t="n">
+        <v>350</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-960859.7000000003</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-483037.6000000002</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5846</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-477822.1000000002</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-25961.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2413.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-81.73487854943554</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1454.372696190681</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.223742730071844</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>67</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G52" t="n">
+        <v>85</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>45</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-963292.4000000003</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-481646.2000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7113</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-481646.2000000001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-25973.4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2420</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-67.71351047378042</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1288.553723682128</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2224096724307606</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>71</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G53" t="n">
+        <v>70</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>300</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-964018.7000000003</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-487192.6000000002</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3897</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-476826.1000000002</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-122.3572235052605</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1784.844374917219</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.3453938927380036</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B54" t="n">
+        <v>57</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G54" t="n">
+        <v>70</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>300</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-964018.7000000003</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-487192.6000000002</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3897</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-476826.1000000002</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-122.3572235052605</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1784.844374917219</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.3453938927380036</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B55" t="n">
+        <v>38</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G55" t="n">
+        <v>35</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>35</v>
+      </c>
+      <c r="J55" t="n">
+        <v>450</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-965652.2000000003</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-486349.6000000002</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6909</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-479302.6000000002</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2768.5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-69.37365754812565</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1342.719544115777</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.2214502822405558</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>250</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-967326.2000000003</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-490069.6000000002</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3521</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-477256.6000000002</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2595.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-135.5457540471457</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1877.5860829376</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.3459244532803181</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>50</v>
+      </c>
+      <c r="J57" t="n">
+        <v>400</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-970132.2000000003</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-490079.1000000002</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5301</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-480053.1000000002</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-25965.4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2341</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-90.55897000565933</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1532.581181932167</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.1929824561403509</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n">
+        <v>74</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G58" t="n">
+        <v>65</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>20</v>
+      </c>
+      <c r="J58" t="n">
+        <v>300</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1006248</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-509592.0000000002</v>
+      </c>
+      <c r="M58" t="n">
+        <v>7329</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-496656.0000000002</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2228</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-67.76586164551783</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1336.129980965962</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.2567881020603084</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B59" t="n">
+        <v>31</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="n">
+        <v>250</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1012608.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-510540.0000000002</v>
+      </c>
+      <c r="M59" t="n">
+        <v>7268</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-502068.5000000002</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-25973.4</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2797</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-69.07932030820035</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1341.726473588677</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.238442487616951</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>77</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G60" t="n">
+        <v>85</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>400</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1012928.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-512584.0000000002</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7356</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-500344.5000000002</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2228</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-68.0185562805873</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1334.177355145593</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.2529907558455682</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B61" t="n">
+        <v>23</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G61" t="n">
+        <v>95</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>450</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1017520</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-514974.5000000002</v>
+      </c>
+      <c r="M61" t="n">
+        <v>7418</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-502545.5000000002</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2228</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-67.74676462658401</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1328.567221353036</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.2468320301968185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B62" t="n">
+        <v>49</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15</v>
+      </c>
+      <c r="J62" t="n">
+        <v>50</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1054455.7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-527724.6000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5063</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-526731.1000000001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1701</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-104.0353742840213</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1564.397603631055</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.2389887418526565</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B63" t="n">
+        <v>81</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>500</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1104553.6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-560374.8000000002</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7651</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-544178.8000000002</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1406.5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-71.1251862501634</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1370.238818404908</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.3457064436021435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B64" t="n">
+        <v>30</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G64" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>400</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-1112953.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-563416.8000000002</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5107</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-549536.8000000002</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1773</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-107.6046211082828</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1676.214698422825</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.3037008028196593</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G65" t="n">
         <v>55</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H65" t="n">
         <v>1.4</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I65" t="n">
         <v>10</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J65" t="n">
         <v>100</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K65" t="n">
         <v>-1145667.6</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L65" t="n">
         <v>-572833.8000000002</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M65" t="n">
         <v>12925</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N65" t="n">
         <v>-572833.8000000002</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O65" t="n">
         <v>-25962.9</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P65" t="n">
         <v>2199</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q65" t="n">
         <v>-44.31982978723406</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R65" t="n">
         <v>1055.121939227352</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S65" t="n">
         <v>-9.5</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T65" t="n">
         <v>0.2888201160541586</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B66" t="n">
+        <v>52</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G66" t="n">
+        <v>45</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>400</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1158129.4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-582798.7000000002</v>
+      </c>
+      <c r="M66" t="n">
+        <v>15406</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-575330.7000000002</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-37.34458652473064</v>
+      </c>
+      <c r="R66" t="n">
+        <v>988.2309855369093</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.3316240425808127</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n">
+        <v>80</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G67" t="n">
+        <v>45</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>250</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1165197.9</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-585970.7000000002</v>
+      </c>
+      <c r="M67" t="n">
+        <v>15406</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-579227.2000000002</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-37.59750746462419</v>
+      </c>
+      <c r="R67" t="n">
+        <v>988.2234224419483</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.3314942230299883</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B68" t="n">
+        <v>29</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G68" t="n">
+        <v>40</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>300</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-1214668.7</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-609540.6000000002</v>
+      </c>
+      <c r="M68" t="n">
+        <v>13066</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-605128.1000000002</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2199</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-46.31318689729069</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1095.3160362522</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.2935864074697689</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B69" t="n">
+        <v>55</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G69" t="n">
+        <v>20</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15</v>
+      </c>
+      <c r="J69" t="n">
+        <v>300</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-1265920</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-638883.0000000002</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5575</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-627037.0000000002</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-112.473004484305</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1707.951527514322</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.2762331838565023</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B70" t="n">
+        <v>36</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>250</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-1279997.5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-646149.0000000002</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5301</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-633848.5000000002</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2595.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-119.5714959441615</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1751.061235977108</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.3078664402942841</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-1399006.600000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-700739.3000000003</v>
+      </c>
+      <c r="M71" t="n">
+        <v>8023</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-698267.3000000003</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2359.5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-87.03319207279075</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1479.86009939344</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.2530225601395987</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B72" t="n">
+        <v>39</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>400</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-1715803.200000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-861121.1000000004</v>
+      </c>
+      <c r="M72" t="n">
+        <v>17917</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-854682.1000000004</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1562.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-47.7022994921025</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1111.481293957932</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.3333147290282972</v>
       </c>
     </row>
   </sheetData>

--- a/result/TrailATR/summary_DOW_M15_2017-2020_0.xlsx
+++ b/result/TrailATR/summary_DOW_M15_2017-2020_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3392,54 +3392,54 @@
         <v>2020</v>
       </c>
       <c r="G45" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H45" t="n">
-        <v>2.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I45" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J45" t="n">
         <v>150</v>
       </c>
       <c r="K45" t="n">
-        <v>-923146.4000000003</v>
+        <v>-916441.9000000003</v>
       </c>
       <c r="L45" t="n">
-        <v>-464872.7000000001</v>
+        <v>-459105.2000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>6332</v>
+        <v>5424</v>
       </c>
       <c r="N45" t="n">
-        <v>-458273.7000000001</v>
+        <v>-457336.7000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>-25962.9</v>
+        <v>-25656.9</v>
       </c>
       <c r="P45" t="n">
-        <v>2860</v>
+        <v>2320.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>-72.37424194567279</v>
+        <v>-84.31723820059</v>
       </c>
       <c r="R45" t="n">
-        <v>1366.014753272245</v>
+        <v>1468.121769192665</v>
       </c>
       <c r="S45" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2094125078963992</v>
+        <v>0.2192109144542773</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3458,54 +3458,54 @@
         <v>2020</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="H46" t="n">
-        <v>3.600000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J46" t="n">
         <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>-939423.9000000003</v>
+        <v>-923146.4000000003</v>
       </c>
       <c r="L46" t="n">
-        <v>-471384.2000000001</v>
+        <v>-464872.7000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>5209</v>
+        <v>6332</v>
       </c>
       <c r="N46" t="n">
-        <v>-468039.7000000001</v>
+        <v>-458273.7000000001</v>
       </c>
       <c r="O46" t="n">
-        <v>-25958.4</v>
+        <v>-25962.9</v>
       </c>
       <c r="P46" t="n">
-        <v>2889.5</v>
+        <v>2860</v>
       </c>
       <c r="Q46" t="n">
-        <v>-89.85212132846998</v>
+        <v>-72.37424194567279</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.274838530446</v>
+        <v>1366.014753272245</v>
       </c>
       <c r="S46" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1708581301593396</v>
+        <v>0.2094125078963992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B47" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3524,54 +3524,54 @@
         <v>2020</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
-        <v>-944637.6000000002</v>
+        <v>-939423.9000000003</v>
       </c>
       <c r="L47" t="n">
-        <v>-472748.8000000001</v>
+        <v>-471384.2000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>5019</v>
+        <v>5209</v>
       </c>
       <c r="N47" t="n">
-        <v>-471888.8000000001</v>
+        <v>-468039.7000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>-25962.9</v>
+        <v>-25958.4</v>
       </c>
       <c r="P47" t="n">
-        <v>1733</v>
+        <v>2889.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>-94.02048216776252</v>
+        <v>-89.85212132846998</v>
       </c>
       <c r="R47" t="n">
-        <v>1489.371023067906</v>
+        <v>1502.274838530446</v>
       </c>
       <c r="S47" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1946602908946005</v>
+        <v>0.1708581301593396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3590,54 +3590,54 @@
         <v>2020</v>
       </c>
       <c r="G48" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H48" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J48" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>-950697.7000000003</v>
+        <v>-944637.6000000002</v>
       </c>
       <c r="L48" t="n">
-        <v>-481643.6000000002</v>
+        <v>-472748.8000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>7264</v>
+        <v>5019</v>
       </c>
       <c r="N48" t="n">
-        <v>-469054.1000000002</v>
+        <v>-471888.8000000001</v>
       </c>
       <c r="O48" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P48" t="n">
-        <v>1577.5</v>
+        <v>1733</v>
       </c>
       <c r="Q48" t="n">
-        <v>-64.57242566079297</v>
+        <v>-94.02048216776252</v>
       </c>
       <c r="R48" t="n">
-        <v>1309.236414868401</v>
+        <v>1489.371023067906</v>
       </c>
       <c r="S48" t="n">
-        <v>-12.5</v>
+        <v>-19</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3396200440528634</v>
+        <v>0.1946602908946005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B49" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3656,55 +3656,55 @@
         <v>2020</v>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K49" t="n">
-        <v>-957812.2000000003</v>
+        <v>-950697.7000000003</v>
       </c>
       <c r="L49" t="n">
-        <v>-484021.6000000002</v>
+        <v>-481643.6000000002</v>
       </c>
       <c r="M49" t="n">
-        <v>5105</v>
+        <v>7264</v>
       </c>
       <c r="N49" t="n">
-        <v>-473790.6000000002</v>
+        <v>-469054.1000000002</v>
       </c>
       <c r="O49" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P49" t="n">
-        <v>2434</v>
+        <v>1577.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>-92.80912830558279</v>
+        <v>-64.57242566079297</v>
       </c>
       <c r="R49" t="n">
-        <v>1561.261953947888</v>
+        <v>1309.236414868401</v>
       </c>
       <c r="S49" t="n">
-        <v>-16</v>
+        <v>-12.5</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2671890303623898</v>
+        <v>0.3396200440528634</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B50" t="n">
         <v>46</v>
       </c>
-      <c r="B50" t="n">
-        <v>56</v>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>DOW</t>
@@ -3722,54 +3722,54 @@
         <v>2020</v>
       </c>
       <c r="G50" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J50" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>-958580.7000000003</v>
+        <v>-957812.2000000003</v>
       </c>
       <c r="L50" t="n">
-        <v>-485851.6000000002</v>
+        <v>-484021.6000000002</v>
       </c>
       <c r="M50" t="n">
-        <v>7230</v>
+        <v>5105</v>
       </c>
       <c r="N50" t="n">
-        <v>-472729.1000000002</v>
+        <v>-473790.6000000002</v>
       </c>
       <c r="O50" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P50" t="n">
-        <v>2228</v>
+        <v>2434</v>
       </c>
       <c r="Q50" t="n">
-        <v>-65.38438450899034</v>
+        <v>-92.80912830558279</v>
       </c>
       <c r="R50" t="n">
-        <v>1312.416299550567</v>
+        <v>1561.261953947888</v>
       </c>
       <c r="S50" t="n">
-        <v>-13.5</v>
+        <v>-16</v>
       </c>
       <c r="T50" t="n">
-        <v>0.2576763485477178</v>
+        <v>0.2671890303623898</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3788,54 +3788,54 @@
         <v>2020</v>
       </c>
       <c r="G51" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H51" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J51" t="n">
         <v>350</v>
       </c>
       <c r="K51" t="n">
-        <v>-960859.7000000003</v>
+        <v>-958580.7000000003</v>
       </c>
       <c r="L51" t="n">
-        <v>-483037.6000000002</v>
+        <v>-485851.6000000002</v>
       </c>
       <c r="M51" t="n">
-        <v>5846</v>
+        <v>7230</v>
       </c>
       <c r="N51" t="n">
-        <v>-477822.1000000002</v>
+        <v>-472729.1000000002</v>
       </c>
       <c r="O51" t="n">
-        <v>-25961.4</v>
+        <v>-25962.9</v>
       </c>
       <c r="P51" t="n">
-        <v>2413.5</v>
+        <v>2228</v>
       </c>
       <c r="Q51" t="n">
-        <v>-81.73487854943554</v>
+        <v>-65.38438450899034</v>
       </c>
       <c r="R51" t="n">
-        <v>1454.372696190681</v>
+        <v>1312.416299550567</v>
       </c>
       <c r="S51" t="n">
-        <v>-11</v>
+        <v>-13.5</v>
       </c>
       <c r="T51" t="n">
-        <v>0.223742730071844</v>
+        <v>0.2576763485477178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B52" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3854,54 +3854,54 @@
         <v>2020</v>
       </c>
       <c r="G52" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H52" t="n">
         <v>1.2</v>
       </c>
       <c r="I52" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K52" t="n">
-        <v>-963292.4000000003</v>
+        <v>-960859.7000000003</v>
       </c>
       <c r="L52" t="n">
-        <v>-481646.2000000001</v>
+        <v>-483037.6000000002</v>
       </c>
       <c r="M52" t="n">
-        <v>7113</v>
+        <v>5846</v>
       </c>
       <c r="N52" t="n">
-        <v>-481646.2000000001</v>
+        <v>-477822.1000000002</v>
       </c>
       <c r="O52" t="n">
-        <v>-25973.4</v>
+        <v>-25961.4</v>
       </c>
       <c r="P52" t="n">
-        <v>2420</v>
+        <v>2413.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>-67.71351047378042</v>
+        <v>-81.73487854943554</v>
       </c>
       <c r="R52" t="n">
-        <v>1288.553723682128</v>
+        <v>1454.372696190681</v>
       </c>
       <c r="S52" t="n">
         <v>-11</v>
       </c>
       <c r="T52" t="n">
-        <v>0.2224096724307606</v>
+        <v>0.223742730071844</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>2020</v>
       </c>
       <c r="G53" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J53" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>-964018.7000000003</v>
+        <v>-963292.4000000003</v>
       </c>
       <c r="L53" t="n">
-        <v>-487192.6000000002</v>
+        <v>-481646.2000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>3897</v>
+        <v>7113</v>
       </c>
       <c r="N53" t="n">
-        <v>-476826.1000000002</v>
+        <v>-481646.2000000001</v>
       </c>
       <c r="O53" t="n">
-        <v>-25962.9</v>
+        <v>-25973.4</v>
       </c>
       <c r="P53" t="n">
-        <v>2220.5</v>
+        <v>2420</v>
       </c>
       <c r="Q53" t="n">
-        <v>-122.3572235052605</v>
+        <v>-67.71351047378042</v>
       </c>
       <c r="R53" t="n">
-        <v>1784.844374917219</v>
+        <v>1288.553723682128</v>
       </c>
       <c r="S53" t="n">
-        <v>-16.5</v>
+        <v>-11</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3453938927380036</v>
+        <v>0.2224096724307606</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>70</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B55" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4052,54 +4052,54 @@
         <v>2020</v>
       </c>
       <c r="G55" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="I55" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K55" t="n">
-        <v>-965652.2000000003</v>
+        <v>-964018.7000000003</v>
       </c>
       <c r="L55" t="n">
-        <v>-486349.6000000002</v>
+        <v>-487192.6000000002</v>
       </c>
       <c r="M55" t="n">
-        <v>6909</v>
+        <v>3897</v>
       </c>
       <c r="N55" t="n">
-        <v>-479302.6000000002</v>
+        <v>-476826.1000000002</v>
       </c>
       <c r="O55" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P55" t="n">
-        <v>2768.5</v>
+        <v>2220.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>-69.37365754812565</v>
+        <v>-122.3572235052605</v>
       </c>
       <c r="R55" t="n">
-        <v>1342.719544115777</v>
+        <v>1784.844374917219</v>
       </c>
       <c r="S55" t="n">
-        <v>-13.5</v>
+        <v>-16.5</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2214502822405558</v>
+        <v>0.3453938927380036</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B56" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4118,54 +4118,54 @@
         <v>2020</v>
       </c>
       <c r="G56" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J56" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K56" t="n">
-        <v>-967326.2000000003</v>
+        <v>-965652.2000000003</v>
       </c>
       <c r="L56" t="n">
-        <v>-490069.6000000002</v>
+        <v>-486349.6000000002</v>
       </c>
       <c r="M56" t="n">
-        <v>3521</v>
+        <v>6909</v>
       </c>
       <c r="N56" t="n">
-        <v>-477256.6000000002</v>
+        <v>-479302.6000000002</v>
       </c>
       <c r="O56" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P56" t="n">
-        <v>2595.5</v>
+        <v>2768.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>-135.5457540471457</v>
+        <v>-69.37365754812565</v>
       </c>
       <c r="R56" t="n">
-        <v>1877.5860829376</v>
+        <v>1342.719544115777</v>
       </c>
       <c r="S56" t="n">
-        <v>-16</v>
+        <v>-13.5</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3459244532803181</v>
+        <v>0.2214502822405558</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4184,54 +4184,54 @@
         <v>2020</v>
       </c>
       <c r="G57" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K57" t="n">
-        <v>-970132.2000000003</v>
+        <v>-967326.2000000003</v>
       </c>
       <c r="L57" t="n">
-        <v>-490079.1000000002</v>
+        <v>-490069.6000000002</v>
       </c>
       <c r="M57" t="n">
-        <v>5301</v>
+        <v>3521</v>
       </c>
       <c r="N57" t="n">
-        <v>-480053.1000000002</v>
+        <v>-477256.6000000002</v>
       </c>
       <c r="O57" t="n">
-        <v>-25965.4</v>
+        <v>-25962.9</v>
       </c>
       <c r="P57" t="n">
-        <v>2341</v>
+        <v>2595.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>-90.55897000565933</v>
+        <v>-135.5457540471457</v>
       </c>
       <c r="R57" t="n">
-        <v>1532.581181932167</v>
+        <v>1877.5860829376</v>
       </c>
       <c r="S57" t="n">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="T57" t="n">
-        <v>0.1929824561403509</v>
+        <v>0.3459244532803181</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4250,54 +4250,54 @@
         <v>2020</v>
       </c>
       <c r="G58" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>-1006248</v>
+        <v>-970132.2000000003</v>
       </c>
       <c r="L58" t="n">
-        <v>-509592.0000000002</v>
+        <v>-490079.1000000002</v>
       </c>
       <c r="M58" t="n">
-        <v>7329</v>
+        <v>5301</v>
       </c>
       <c r="N58" t="n">
-        <v>-496656.0000000002</v>
+        <v>-480053.1000000002</v>
       </c>
       <c r="O58" t="n">
-        <v>-25962.9</v>
+        <v>-25965.4</v>
       </c>
       <c r="P58" t="n">
-        <v>2228</v>
+        <v>2341</v>
       </c>
       <c r="Q58" t="n">
-        <v>-67.76586164551783</v>
+        <v>-90.55897000565933</v>
       </c>
       <c r="R58" t="n">
-        <v>1336.129980965962</v>
+        <v>1532.581181932167</v>
       </c>
       <c r="S58" t="n">
-        <v>-13.5</v>
+        <v>-15.5</v>
       </c>
       <c r="T58" t="n">
-        <v>0.2567881020603084</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4316,54 +4316,54 @@
         <v>2020</v>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I59" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J59" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>-1012608.5</v>
+        <v>-1006248</v>
       </c>
       <c r="L59" t="n">
-        <v>-510540.0000000002</v>
+        <v>-509592.0000000002</v>
       </c>
       <c r="M59" t="n">
-        <v>7268</v>
+        <v>7329</v>
       </c>
       <c r="N59" t="n">
-        <v>-502068.5000000002</v>
+        <v>-496656.0000000002</v>
       </c>
       <c r="O59" t="n">
-        <v>-25973.4</v>
+        <v>-25962.9</v>
       </c>
       <c r="P59" t="n">
-        <v>2797</v>
+        <v>2228</v>
       </c>
       <c r="Q59" t="n">
-        <v>-69.07932030820035</v>
+        <v>-67.76586164551783</v>
       </c>
       <c r="R59" t="n">
-        <v>1341.726473588677</v>
+        <v>1336.129980965962</v>
       </c>
       <c r="S59" t="n">
-        <v>-10.5</v>
+        <v>-13.5</v>
       </c>
       <c r="T59" t="n">
-        <v>0.238442487616951</v>
+        <v>0.2567881020603084</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B60" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4382,54 +4382,54 @@
         <v>2020</v>
       </c>
       <c r="G60" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H60" t="n">
-        <v>2.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I60" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J60" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K60" t="n">
-        <v>-1012928.5</v>
+        <v>-1012608.5</v>
       </c>
       <c r="L60" t="n">
-        <v>-512584.0000000002</v>
+        <v>-510540.0000000002</v>
       </c>
       <c r="M60" t="n">
-        <v>7356</v>
+        <v>7268</v>
       </c>
       <c r="N60" t="n">
-        <v>-500344.5000000002</v>
+        <v>-502068.5000000002</v>
       </c>
       <c r="O60" t="n">
-        <v>-25962.9</v>
+        <v>-25973.4</v>
       </c>
       <c r="P60" t="n">
-        <v>2228</v>
+        <v>2797</v>
       </c>
       <c r="Q60" t="n">
-        <v>-68.0185562805873</v>
+        <v>-69.07932030820035</v>
       </c>
       <c r="R60" t="n">
-        <v>1334.177355145593</v>
+        <v>1341.726473588677</v>
       </c>
       <c r="S60" t="n">
-        <v>-13</v>
+        <v>-10.5</v>
       </c>
       <c r="T60" t="n">
-        <v>0.2529907558455682</v>
+        <v>0.238442487616951</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4448,28 +4448,28 @@
         <v>2020</v>
       </c>
       <c r="G61" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H61" t="n">
-        <v>2.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I61" t="n">
         <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>-1017520</v>
+        <v>-1012928.5</v>
       </c>
       <c r="L61" t="n">
-        <v>-514974.5000000002</v>
+        <v>-512584.0000000002</v>
       </c>
       <c r="M61" t="n">
-        <v>7418</v>
+        <v>7356</v>
       </c>
       <c r="N61" t="n">
-        <v>-502545.5000000002</v>
+        <v>-500344.5000000002</v>
       </c>
       <c r="O61" t="n">
         <v>-25962.9</v>
@@ -4478,24 +4478,24 @@
         <v>2228</v>
       </c>
       <c r="Q61" t="n">
-        <v>-67.74676462658401</v>
+        <v>-68.0185562805873</v>
       </c>
       <c r="R61" t="n">
-        <v>1328.567221353036</v>
+        <v>1334.177355145593</v>
       </c>
       <c r="S61" t="n">
-        <v>-13.5</v>
+        <v>-13</v>
       </c>
       <c r="T61" t="n">
-        <v>0.2468320301968185</v>
+        <v>0.2529907558455682</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4514,54 +4514,54 @@
         <v>2020</v>
       </c>
       <c r="G62" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H62" t="n">
-        <v>3.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K62" t="n">
-        <v>-1054455.7</v>
+        <v>-1017520</v>
       </c>
       <c r="L62" t="n">
-        <v>-527724.6000000001</v>
+        <v>-514974.5000000002</v>
       </c>
       <c r="M62" t="n">
-        <v>5063</v>
+        <v>7418</v>
       </c>
       <c r="N62" t="n">
-        <v>-526731.1000000001</v>
+        <v>-502545.5000000002</v>
       </c>
       <c r="O62" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P62" t="n">
-        <v>1701</v>
+        <v>2228</v>
       </c>
       <c r="Q62" t="n">
-        <v>-104.0353742840213</v>
+        <v>-67.74676462658401</v>
       </c>
       <c r="R62" t="n">
-        <v>1564.397603631055</v>
+        <v>1328.567221353036</v>
       </c>
       <c r="S62" t="n">
-        <v>-19</v>
+        <v>-13.5</v>
       </c>
       <c r="T62" t="n">
-        <v>0.2389887418526565</v>
+        <v>0.2468320301968185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B63" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4580,54 +4580,54 @@
         <v>2020</v>
       </c>
       <c r="G63" t="n">
+        <v>60</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
         <v>50</v>
       </c>
-      <c r="H63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>500</v>
-      </c>
       <c r="K63" t="n">
-        <v>-1104553.6</v>
+        <v>-1054455.7</v>
       </c>
       <c r="L63" t="n">
-        <v>-560374.8000000002</v>
+        <v>-527724.6000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>7651</v>
+        <v>5063</v>
       </c>
       <c r="N63" t="n">
-        <v>-544178.8000000002</v>
+        <v>-526731.1000000001</v>
       </c>
       <c r="O63" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P63" t="n">
-        <v>1406.5</v>
+        <v>1701</v>
       </c>
       <c r="Q63" t="n">
-        <v>-71.1251862501634</v>
+        <v>-104.0353742840213</v>
       </c>
       <c r="R63" t="n">
-        <v>1370.238818404908</v>
+        <v>1564.397603631055</v>
       </c>
       <c r="S63" t="n">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3457064436021435</v>
+        <v>0.2389887418526565</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4646,54 +4646,54 @@
         <v>2020</v>
       </c>
       <c r="G64" t="n">
+        <v>45</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I64" t="n">
         <v>40</v>
       </c>
-      <c r="H64" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
       <c r="J64" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>-1112953.6</v>
+        <v>-1061246.3</v>
       </c>
       <c r="L64" t="n">
-        <v>-563416.8000000002</v>
+        <v>-535335.4000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>5107</v>
+        <v>7726</v>
       </c>
       <c r="N64" t="n">
-        <v>-549536.8000000002</v>
+        <v>-525910.9000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>-25962.9</v>
+        <v>-25967.4</v>
       </c>
       <c r="P64" t="n">
-        <v>1773</v>
+        <v>2625.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>-107.6046211082828</v>
+        <v>-68.07026922081286</v>
       </c>
       <c r="R64" t="n">
-        <v>1676.214698422825</v>
+        <v>1332.663807481763</v>
       </c>
       <c r="S64" t="n">
-        <v>-16</v>
+        <v>-10.5</v>
       </c>
       <c r="T64" t="n">
-        <v>0.3037008028196593</v>
+        <v>0.2416515661403055</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4712,54 +4712,54 @@
         <v>2020</v>
       </c>
       <c r="G65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H65" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K65" t="n">
-        <v>-1145667.6</v>
+        <v>-1104553.6</v>
       </c>
       <c r="L65" t="n">
-        <v>-572833.8000000002</v>
+        <v>-560374.8000000002</v>
       </c>
       <c r="M65" t="n">
-        <v>12925</v>
+        <v>7651</v>
       </c>
       <c r="N65" t="n">
-        <v>-572833.8000000002</v>
+        <v>-544178.8000000002</v>
       </c>
       <c r="O65" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P65" t="n">
-        <v>2199</v>
+        <v>1406.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>-44.31982978723406</v>
+        <v>-71.1251862501634</v>
       </c>
       <c r="R65" t="n">
-        <v>1055.121939227352</v>
+        <v>1370.238818404908</v>
       </c>
       <c r="S65" t="n">
-        <v>-9.5</v>
+        <v>-12</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2888201160541586</v>
+        <v>0.3457064436021435</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B66" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4778,54 +4778,54 @@
         <v>2020</v>
       </c>
       <c r="G66" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H66" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
         <v>400</v>
       </c>
       <c r="K66" t="n">
-        <v>-1158129.4</v>
+        <v>-1112953.6</v>
       </c>
       <c r="L66" t="n">
-        <v>-582798.7000000002</v>
+        <v>-563416.8000000002</v>
       </c>
       <c r="M66" t="n">
-        <v>15406</v>
+        <v>5107</v>
       </c>
       <c r="N66" t="n">
-        <v>-575330.7000000002</v>
+        <v>-549536.8000000002</v>
       </c>
       <c r="O66" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P66" t="n">
-        <v>1582.5</v>
+        <v>1773</v>
       </c>
       <c r="Q66" t="n">
-        <v>-37.34458652473064</v>
+        <v>-107.6046211082828</v>
       </c>
       <c r="R66" t="n">
-        <v>988.2309855369093</v>
+        <v>1676.214698422825</v>
       </c>
       <c r="S66" t="n">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3316240425808127</v>
+        <v>0.3037008028196593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4844,54 +4844,54 @@
         <v>2020</v>
       </c>
       <c r="G67" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>-1165197.9</v>
+        <v>-1145667.6</v>
       </c>
       <c r="L67" t="n">
-        <v>-585970.7000000002</v>
+        <v>-572833.8000000002</v>
       </c>
       <c r="M67" t="n">
-        <v>15406</v>
+        <v>12925</v>
       </c>
       <c r="N67" t="n">
-        <v>-579227.2000000002</v>
+        <v>-572833.8000000002</v>
       </c>
       <c r="O67" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P67" t="n">
-        <v>1582.5</v>
+        <v>2199</v>
       </c>
       <c r="Q67" t="n">
-        <v>-37.59750746462419</v>
+        <v>-44.31982978723406</v>
       </c>
       <c r="R67" t="n">
-        <v>988.2234224419483</v>
+        <v>1055.121939227352</v>
       </c>
       <c r="S67" t="n">
-        <v>-8</v>
+        <v>-9.5</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3314942230299883</v>
+        <v>0.2888201160541586</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B68" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4910,94 +4910,94 @@
         <v>2020</v>
       </c>
       <c r="G68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H68" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K68" t="n">
-        <v>-1214668.7</v>
+        <v>-1158129.4</v>
       </c>
       <c r="L68" t="n">
-        <v>-609540.6000000002</v>
+        <v>-582798.7000000002</v>
       </c>
       <c r="M68" t="n">
-        <v>13066</v>
+        <v>15406</v>
       </c>
       <c r="N68" t="n">
-        <v>-605128.1000000002</v>
+        <v>-575330.7000000002</v>
       </c>
       <c r="O68" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P68" t="n">
-        <v>2199</v>
+        <v>1582.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>-46.31318689729069</v>
+        <v>-37.34458652473064</v>
       </c>
       <c r="R68" t="n">
-        <v>1095.3160362522</v>
+        <v>988.2309855369093</v>
       </c>
       <c r="S68" t="n">
-        <v>-9.5</v>
+        <v>-8</v>
       </c>
       <c r="T68" t="n">
-        <v>0.2935864074697689</v>
+        <v>0.3316240425808127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>80</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G69" t="n">
         <v>45</v>
       </c>
-      <c r="B69" t="n">
-        <v>55</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DOW</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G69" t="n">
-        <v>20</v>
-      </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K69" t="n">
-        <v>-1265920</v>
+        <v>-1165197.9</v>
       </c>
       <c r="L69" t="n">
-        <v>-638883.0000000002</v>
+        <v>-585970.7000000002</v>
       </c>
       <c r="M69" t="n">
-        <v>5575</v>
+        <v>15406</v>
       </c>
       <c r="N69" t="n">
-        <v>-627037.0000000002</v>
+        <v>-579227.2000000002</v>
       </c>
       <c r="O69" t="n">
         <v>-25962.9</v>
@@ -5006,24 +5006,24 @@
         <v>1582.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>-112.473004484305</v>
+        <v>-37.59750746462419</v>
       </c>
       <c r="R69" t="n">
-        <v>1707.951527514322</v>
+        <v>988.2234224419483</v>
       </c>
       <c r="S69" t="n">
-        <v>-14.5</v>
+        <v>-8</v>
       </c>
       <c r="T69" t="n">
-        <v>0.2762331838565023</v>
+        <v>0.3314942230299883</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B70" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -5042,54 +5042,54 @@
         <v>2020</v>
       </c>
       <c r="G70" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="I70" t="n">
         <v>10</v>
       </c>
       <c r="J70" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K70" t="n">
-        <v>-1279997.5</v>
+        <v>-1214668.7</v>
       </c>
       <c r="L70" t="n">
-        <v>-646149.0000000002</v>
+        <v>-609540.6000000002</v>
       </c>
       <c r="M70" t="n">
-        <v>5301</v>
+        <v>13066</v>
       </c>
       <c r="N70" t="n">
-        <v>-633848.5000000002</v>
+        <v>-605128.1000000002</v>
       </c>
       <c r="O70" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P70" t="n">
-        <v>2595.5</v>
+        <v>2199</v>
       </c>
       <c r="Q70" t="n">
-        <v>-119.5714959441615</v>
+        <v>-46.31318689729069</v>
       </c>
       <c r="R70" t="n">
-        <v>1751.061235977108</v>
+        <v>1095.3160362522</v>
       </c>
       <c r="S70" t="n">
-        <v>-14</v>
+        <v>-9.5</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3078664402942841</v>
+        <v>0.2935864074697689</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -5111,51 +5111,51 @@
         <v>20</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>-1399006.600000001</v>
+        <v>-1265920</v>
       </c>
       <c r="L71" t="n">
-        <v>-700739.3000000003</v>
+        <v>-638883.0000000002</v>
       </c>
       <c r="M71" t="n">
-        <v>8023</v>
+        <v>5575</v>
       </c>
       <c r="N71" t="n">
-        <v>-698267.3000000003</v>
+        <v>-627037.0000000002</v>
       </c>
       <c r="O71" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P71" t="n">
-        <v>2359.5</v>
+        <v>1582.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>-87.03319207279075</v>
+        <v>-112.473004484305</v>
       </c>
       <c r="R71" t="n">
-        <v>1479.86009939344</v>
+        <v>1707.951527514322</v>
       </c>
       <c r="S71" t="n">
-        <v>-12</v>
+        <v>-14.5</v>
       </c>
       <c r="T71" t="n">
-        <v>0.2530225601395987</v>
+        <v>0.2762331838565023</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B72" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -5174,45 +5174,177 @@
         <v>2020</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H72" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K72" t="n">
-        <v>-1715803.200000001</v>
+        <v>-1279997.5</v>
       </c>
       <c r="L72" t="n">
-        <v>-861121.1000000004</v>
+        <v>-646149.0000000002</v>
       </c>
       <c r="M72" t="n">
-        <v>17917</v>
+        <v>5301</v>
       </c>
       <c r="N72" t="n">
-        <v>-854682.1000000004</v>
+        <v>-633848.5000000002</v>
       </c>
       <c r="O72" t="n">
         <v>-25962.9</v>
       </c>
       <c r="P72" t="n">
+        <v>2595.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-119.5714959441615</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1751.061235977108</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.3078664402942841</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B73" t="n">
+        <v>45</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G73" t="n">
+        <v>20</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-1399006.600000001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-700739.3000000003</v>
+      </c>
+      <c r="M73" t="n">
+        <v>8023</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-698267.3000000003</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2359.5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-87.03319207279075</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1479.86009939344</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.2530225601395987</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B74" t="n">
+        <v>39</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>400</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-1715803.200000001</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-861121.1000000004</v>
+      </c>
+      <c r="M74" t="n">
+        <v>17917</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-854682.1000000004</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-25962.9</v>
+      </c>
+      <c r="P74" t="n">
         <v>1562.5</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q74" t="n">
         <v>-47.7022994921025</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R74" t="n">
         <v>1111.481293957932</v>
       </c>
-      <c r="S72" t="n">
+      <c r="S74" t="n">
         <v>-7</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T74" t="n">
         <v>0.3333147290282972</v>
       </c>
     </row>
